--- a/TestData/AddMentorTestData.xlsx
+++ b/TestData/AddMentorTestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -51,17 +51,23 @@
 </t>
   </si>
   <si>
-    <t>Sample Project</t>
-  </si>
-  <si>
     <t>adfhgg#$%^</t>
+  </si>
+  <si>
+    <t>12345678!</t>
+  </si>
+  <si>
+    <t>12345678A</t>
+  </si>
+  <si>
+    <t>MERN Stack Web Development</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,13 +86,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,7 +115,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,7 +410,7 @@
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -443,7 +444,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -467,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -484,7 +485,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -501,7 +502,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -512,17 +513,65 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>1234567890</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1234567</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="4"/>
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>1234567890</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>1234567890</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
